--- a/data/TH19_Story.xlsx
+++ b/data/TH19_Story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VincentDirac\Dialogue_Converter_for_THBWiki\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B52F93-2119-445E-BD3A-275AD14D24FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB19F63-9A94-4BC9-856A-96D3EEDCC9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,25 +231,30 @@
     <t>Ending No. 13</t>
   </si>
   <si>
+    <t>Ending No. 19</t>
+  </si>
+  <si>
+    <t>Ending No. 02</t>
+  </si>
+  <si>
+    <t>Ending No. 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ending No. 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ending No. 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ending No. 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Ending No. 14</t>
-  </si>
-  <si>
-    <t>Ending No. 15</t>
-  </si>
-  <si>
-    <t>Ending No. 16</t>
-  </si>
-  <si>
-    <t>Ending No. 17</t>
-  </si>
-  <si>
-    <t>Ending No. 18</t>
-  </si>
-  <si>
-    <t>Ending No. 19</t>
-  </si>
-  <si>
-    <t>Ending No. 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -578,7 +583,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J20"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -682,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1066,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1098,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1130,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1162,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1194,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1226,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
